--- a/Experimentos.xlsx
+++ b/Experimentos.xlsx
@@ -2916,9 +2916,6 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>INFINITY</v>
-      </c>
       <c r="B1" t="str">
         <v>(EXP BASE)</v>
       </c>
